--- a/docs/ValueSet-CodigoMedicamentoVS.xlsx
+++ b/docs/ValueSet-CodigoMedicamentoVS.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3409</t>
+    <t>0.1.41</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-CodigoMedicamentoVS.xlsx
+++ b/docs/ValueSet-CodigoMedicamentoVS.xlsx
@@ -8,14 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from WHO ATC" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from mms" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.41</t>
+    <t>0.1.42</t>
   </si>
   <si>
     <t>Name</t>
@@ -56,6 +54,9 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -114,21 +115,6 @@
   </si>
   <si>
     <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
-  </si>
-  <si>
-    <t>http://www.whocc.no/atc</t>
-  </si>
-  <si>
-    <t>XM4843</t>
-  </si>
-  <si>
-    <t>http://id.who.int/icd11/mms</t>
   </si>
 </sst>
 </file>
@@ -324,43 +310,45 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>9</v>
@@ -368,22 +356,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -408,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -416,127 +404,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
         <v>33</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ValueSet-CodigoMedicamentoVS.xlsx
+++ b/docs/ValueSet-CodigoMedicamentoVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.42</t>
+    <t>0.1.43</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-CodigoMedicamentoVS.xlsx
+++ b/docs/ValueSet-CodigoMedicamentoVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.43</t>
+    <t>0.1.44</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-CodigoMedicamentoVS.xlsx
+++ b/docs/ValueSet-CodigoMedicamentoVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.44</t>
+    <t>0.1.45</t>
   </si>
   <si>
     <t>Name</t>
